--- a/ConceptMap-R5-BiologicallyDerivedProductDispense-elements-for-R4.xlsx
+++ b/ConceptMap-R5-BiologicallyDerivedProductDispense-elements-for-R4.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="102">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:31.1089244-06:00</t>
+    <t>2026-02-09T22:05:43.4947811-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -237,9 +237,6 @@
     <t>performer</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense:performer</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense:http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense.performer</t>
   </si>
   <si>
@@ -249,9 +246,6 @@
     <t>function</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense:performer:function</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense:http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense.performer:function</t>
   </si>
   <si>
@@ -259,9 +253,6 @@
   </si>
   <si>
     <t>actor</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense:performer:actor</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense:http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense.performer:actor</t>
@@ -584,7 +575,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -819,159 +810,120 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E26" s="2"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="E29" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ConceptMap-R5-BiologicallyDerivedProductDispense-elements-for-R4.xlsx
+++ b/ConceptMap-R5-BiologicallyDerivedProductDispense-elements-for-R4.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.4947811-06:00</t>
+    <t>2026-02-17T14:42:27.0063815-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -174,7 +174,7 @@
     <t>basedOn</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense:basedOn</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense:http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense.basedOn</t>
   </si>
   <si>
     <t>BiologicallyDerivedProductDispense.partOf</t>
@@ -183,7 +183,7 @@
     <t>partOf</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense:partOf</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense:http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense.partOf</t>
   </si>
   <si>
     <t>BiologicallyDerivedProductDispense.status</t>
@@ -192,7 +192,7 @@
     <t>status</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense:status</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense:http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense.status</t>
   </si>
   <si>
     <t>BiologicallyDerivedProductDispense.originRelationshipType</t>
@@ -201,7 +201,7 @@
     <t>originRelationshipType</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense:originRelationshipType</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense:http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense.originRelationshipType</t>
   </si>
   <si>
     <t>BiologicallyDerivedProductDispense.product</t>
@@ -210,7 +210,7 @@
     <t>product</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense:product</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense:http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense.product</t>
   </si>
   <si>
     <t>BiologicallyDerivedProductDispense.patient</t>
@@ -219,7 +219,7 @@
     <t>patient</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense:patient</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense:http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense.patient</t>
   </si>
   <si>
     <t>BiologicallyDerivedProductDispense.matchStatus</t>
@@ -228,7 +228,7 @@
     <t>matchStatus</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense:matchStatus</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense:http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense.matchStatus</t>
   </si>
   <si>
     <t>BiologicallyDerivedProductDispense.performer</t>
@@ -246,7 +246,7 @@
     <t>function</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense:http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense.performer:function</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense:http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense.performer:http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense.performer.function</t>
   </si>
   <si>
     <t>BiologicallyDerivedProductDispense.performer.actor</t>
@@ -255,7 +255,7 @@
     <t>actor</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense:http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense.performer:actor</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense:http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense.performer:http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense.performer.actor</t>
   </si>
   <si>
     <t>BiologicallyDerivedProductDispense.location</t>
@@ -264,7 +264,7 @@
     <t>location</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense:location</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense:http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense.location</t>
   </si>
   <si>
     <t>BiologicallyDerivedProductDispense.quantity</t>
@@ -273,7 +273,7 @@
     <t>quantity</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense:quantity</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense:http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense.quantity</t>
   </si>
   <si>
     <t>BiologicallyDerivedProductDispense.preparedDate</t>
@@ -282,7 +282,7 @@
     <t>preparedDate</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense:preparedDate</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense:http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense.preparedDate</t>
   </si>
   <si>
     <t>BiologicallyDerivedProductDispense.whenHandedOver</t>
@@ -291,7 +291,7 @@
     <t>whenHandedOver</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense:whenHandedOver</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense:http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense.whenHandedOver</t>
   </si>
   <si>
     <t>BiologicallyDerivedProductDispense.destination</t>
@@ -300,7 +300,7 @@
     <t>destination</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense:destination</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense:http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense.destination</t>
   </si>
   <si>
     <t>BiologicallyDerivedProductDispense.note</t>
@@ -309,7 +309,7 @@
     <t>note</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense:note</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense:http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense.note</t>
   </si>
   <si>
     <t>BiologicallyDerivedProductDispense.usageInstruction</t>
@@ -318,7 +318,7 @@
     <t>usageInstruction</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense:usageInstruction</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense:http://hl7.org/fhir/5.0/StructureDefinition/extension-BiologicallyDerivedProductDispense.usageInstruction</t>
   </si>
 </sst>
 </file>
